--- a/TeamDanielJosephReillySoleilReport.xlsx
+++ b/TeamDanielJosephReillySoleilReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClassWorkspace\555Agile\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2591882A-3A84-4B15-B2CF-B483AECA0CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89E3AB5-1576-42C0-B603-8699CC07C1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="2985" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="213">
   <si>
     <t>Initials</t>
   </si>
@@ -326,27 +326,6 @@
     <t>Order Birthdays by Age</t>
   </si>
   <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>hm</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>Store death date</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>Compare birth and death dates</t>
-  </si>
-  <si>
     <t>US05</t>
   </si>
   <si>
@@ -359,46 +338,13 @@
     <t>Coding</t>
   </si>
   <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-  </si>
-  <si>
-    <t>gh(at)</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>Find marriage date</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
-  </si>
-  <si>
-    <t>gh(hm)</t>
-  </si>
-  <si>
     <t>Review Results</t>
   </si>
   <si>
     <t>Keep doing:</t>
   </si>
   <si>
-    <t>Bring pizza to our meetings</t>
-  </si>
-  <si>
-    <t>Bring silverware for everyone</t>
-  </si>
-  <si>
     <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Leaving leftover pizza on the counter</t>
   </si>
   <si>
     <t>Story Description</t>
@@ -688,6 +634,54 @@
   <si>
     <t>RF</t>
   </si>
+  <si>
+    <t>Continue doing solo work due to scheduling problems</t>
+  </si>
+  <si>
+    <t>Don't be afraid to ask questions if you're stuck anyway!</t>
+  </si>
+  <si>
+    <t>Avoid delaying github uploads</t>
+  </si>
+  <si>
+    <t>Daniel Pekata</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List large age differences </t>
+  </si>
+  <si>
+    <t>Reilly Fitzgerald</t>
+  </si>
+  <si>
+    <t>Marriadge before Divorce</t>
+  </si>
+  <si>
+    <t>Marriadge before death</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour </t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>Soleil Bachrach</t>
+  </si>
+  <si>
+    <t>Birth before marriadge of parents</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>Joseph Mirabile</t>
+  </si>
 </sst>
 </file>
 
@@ -788,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -828,6 +822,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,6 +1100,9 @@
                 <c:pt idx="1">
                   <c:v>41917</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44486</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1117,6 +1117,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,12 +1581,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="257175" cy="400050"/>
+    <xdr:ext cx="428625" cy="619126"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Shape 6">
@@ -1597,8 +1600,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5222175" y="3584738"/>
-          <a:ext cx="247650" cy="390525"/>
+          <a:off x="3695700" y="1514475"/>
+          <a:ext cx="428625" cy="619126"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -3546,13 +3549,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E21" t="s">
         <v>34</v>
@@ -3560,46 +3563,46 @@
     </row>
     <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3607,13 +3610,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E26" t="s">
         <v>34</v>
@@ -3624,13 +3627,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E27" t="s">
         <v>34</v>
@@ -3638,13 +3641,13 @@
     </row>
     <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4629,7 +4632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8799,7 +8804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8887,8 +8894,24 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="10">
+        <v>44486</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>350</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4" s="11">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
@@ -12883,10 +12906,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I1002"/>
+  <dimension ref="A1:I996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13049,339 +13072,288 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="10"/>
+      <c r="A6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7">
+        <v>30</v>
+      </c>
+      <c r="I6" s="20">
+        <v>44470</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="10"/>
+      <c r="A8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="7">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7">
+        <v>12</v>
+      </c>
+      <c r="H8" s="7">
+        <v>30</v>
+      </c>
+      <c r="I8" s="20">
+        <v>44472</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7">
         <v>30</v>
       </c>
       <c r="G9" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I9" s="20">
-        <v>44470</v>
+        <v>44472</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="7">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="I10" s="20">
+        <v>44472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="24">
+        <v>50</v>
+      </c>
+      <c r="F11" s="24">
+        <v>30</v>
+      </c>
+      <c r="G11" s="24">
+        <v>15</v>
+      </c>
+      <c r="H11" s="24">
+        <v>25</v>
+      </c>
+      <c r="I11" s="10">
+        <v>44472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="2">
-        <v>200</v>
-      </c>
-      <c r="F10" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="B12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="24">
+        <v>100</v>
+      </c>
+      <c r="F12" s="24">
         <v>30</v>
       </c>
-      <c r="F11" s="7">
-        <v>25</v>
-      </c>
-      <c r="G11" s="7">
-        <v>12</v>
-      </c>
-      <c r="H11" s="7">
-        <v>30</v>
-      </c>
-      <c r="I11" s="20">
+      <c r="G12" s="24">
+        <v>94</v>
+      </c>
+      <c r="H12" s="24">
+        <v>40</v>
+      </c>
+      <c r="I12" s="10">
         <v>44472</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="7">
-        <v>20</v>
-      </c>
-      <c r="F12" s="7">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20">
-        <v>44472</v>
-      </c>
-    </row>
     <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="7">
-        <v>50</v>
-      </c>
-      <c r="F13" s="7">
-        <v>20</v>
-      </c>
-      <c r="G13" s="7">
-        <v>10</v>
-      </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13" s="20">
-        <v>44472</v>
-      </c>
+      <c r="B13" s="21"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="24">
-        <v>50</v>
-      </c>
-      <c r="F14" s="24">
-        <v>30</v>
-      </c>
-      <c r="G14" s="24">
-        <v>15</v>
-      </c>
-      <c r="H14" s="24">
-        <v>25</v>
-      </c>
-      <c r="I14" s="10">
-        <v>44472</v>
-      </c>
+      <c r="B14" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="24">
-        <v>100</v>
-      </c>
-      <c r="F15" s="24">
-        <v>30</v>
-      </c>
-      <c r="G15" s="24">
-        <v>94</v>
-      </c>
-      <c r="H15" s="24">
-        <v>40</v>
-      </c>
-      <c r="I15" s="10">
-        <v>44472</v>
-      </c>
+      <c r="B15" s="22"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
+      <c r="B16" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>103</v>
+    <row r="17" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="25" t="s">
+        <v>197</v>
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>112</v>
+    <row r="18" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="25" t="s">
+        <v>198</v>
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="21"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="22" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="22"/>
+    <row r="21" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="25" t="s">
+        <v>199</v>
+      </c>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="22" t="s">
-        <v>114</v>
-      </c>
+    <row r="22" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="21" t="s">
-        <v>115</v>
-      </c>
+    <row r="23" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="21" t="s">
-        <v>116</v>
-      </c>
+    <row r="24" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
+    <row r="25" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="s">
-        <v>117</v>
-      </c>
+    <row r="26" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="21" t="s">
-        <v>118</v>
-      </c>
+    <row r="27" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
       <c r="I32" s="10"/>
     </row>
@@ -17240,30 +17212,6 @@
     <row r="996" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B996" s="6"/>
       <c r="I996" s="10"/>
-    </row>
-    <row r="997" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B997" s="6"/>
-      <c r="I997" s="10"/>
-    </row>
-    <row r="998" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B998" s="6"/>
-      <c r="I998" s="10"/>
-    </row>
-    <row r="999" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B999" s="6"/>
-      <c r="I999" s="10"/>
-    </row>
-    <row r="1000" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1000" s="6"/>
-      <c r="I1000" s="10"/>
-    </row>
-    <row r="1001" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1001" s="6"/>
-      <c r="I1001" s="10"/>
-    </row>
-    <row r="1002" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1002" s="6"/>
-      <c r="I1002" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -17275,7 +17223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17311,14 +17261,166 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>211</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20411,7 +20513,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B12"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20430,7 +20532,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -20461,21 +20563,21 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20486,128 +20588,128 @@
         <v>33</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20618,18 +20720,18 @@
         <v>52</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20640,7 +20742,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20651,7 +20753,7 @@
         <v>56</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20662,18 +20764,18 @@
         <v>58</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20684,7 +20786,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20695,7 +20797,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20706,18 +20808,18 @@
         <v>64</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20728,29 +20830,29 @@
         <v>67</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20758,10 +20860,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20772,18 +20874,18 @@
         <v>50</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20791,21 +20893,21 @@
         <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20813,10 +20915,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20824,10 +20926,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20835,10 +20937,10 @@
         <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20846,32 +20948,32 @@
         <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20879,32 +20981,32 @@
         <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -20915,7 +21017,7 @@
         <v>69</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
